--- a/biology/Botanique/Forsteronia_acouci/Forsteronia_acouci.xlsx
+++ b/biology/Botanique/Forsteronia_acouci/Forsteronia_acouci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forsteronia acouci est une espèce de plantes à fleurs de la famille des Apocynaceae (famille des pervenches). C'est une liane ligneuse néotropicale.
-Elle est connue au Suriname sous le nom de ëmapo petuku (nom générique Tiriyó)[4].
+Elle est connue au Suriname sous le nom de ëmapo petuku (nom générique Tiriyó).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forsteronia acouci est liane arbustive, ligneuse, le plus souvent glabre, avec une tige atteignant 2-10 cm de diamètre[4]. Son écorce est très épaisse et très liègeuse, multicouches et avec des excroissance marquées[5]. Il répand souvent un latex clair, de couleur blanc à miel en cas de blessure.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forsteronia acouci est liane arbustive, ligneuse, le plus souvent glabre, avec une tige atteignant 2-10 cm de diamètre. Son écorce est très épaisse et très liègeuse, multicouches et avec des excroissance marquées. Il répand souvent un latex clair, de couleur blanc à miel en cas de blessure.
 Les ramifications des tiges sont rondes, avec une écorce brun rougeâtre, portant des lenticelles. Les tiges plus âgées sont rondes ou aplaties, à l'écorce avec d'abondantes lenticelles et de grands cônes liégeux. Le motif des tiges en coupe est X-S concentrique.
 Les feuilles sont simples, opposées, de forme elliptiques à étroites, mesurant 8-15 x 3-7 cm, à base arrondie (pas cordée), à apex brusquement acuminé, de texture coriace à sub-coriace, de couleur vert foncé dessus, rouge-brun terne dessous.
 Les nervure tertiaires sont ± parallèles et à angle droit par rapport à la nervure centrale.
@@ -524,7 +538,7 @@
 Le corolle est minuscule, avec un tube long de 0,1-0,25 cm.
 Les fruits sont des follicules largement séparés, mesurant chacun 40-55 x 0,4-0,5 cm, reliés entre eux à l'extrémité.
 Les graines ovoïdes ou aplaties, mesurent 1,5 cm de long, et portant des poils longs de ±4 cm.
-Cette espèce varie beaucoup à travers son aire de répartition : ses feuilles sont plus fines, ses fleurs plus petites et plus velues dans les Guyanes, par rapport aux formes d'Amazonie[4].
+Cette espèce varie beaucoup à travers son aire de répartition : ses feuilles sont plus fines, ses fleurs plus petites et plus velues dans les Guyanes, par rapport aux formes d'Amazonie.
 </t>
         </is>
       </c>
@@ -553,16 +567,18 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forsteronia acouci est une espèce peu commune affectionne les forêt ripicole, et occasionnellement les formations secondaire et les lisières forestières[4].
-En Guyane elle est commune dans les forêts de terre ferme, fleurit en novembre et fructifie en févier[5].
-Les fleurs de Forsteronia acouci sont discrètes et les semences disséminées par anémochorie (graine portant de longues soies)[6].
-Forsteronia acouci est une liane s'enroulant de façon dextrogyre[7].
-Forsteronia acouci peut dominer la communauté de lianes dans certaines forêts du Costa Rica ou du Mexique[8].
-La structure du pollen de Forsteronia acouci a été étudiée[9],[10].
-Forsteronia acouci est la seule espèce de son genre qui a montré la capacité de se reproduire par voie végétative dans une forêt d'Amazonie centrale[11].
-Forsteronia acouci est capable de survivre dans les zones dominées par le bambou Bambusa vulgaris à Trinidad[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forsteronia acouci est une espèce peu commune affectionne les forêt ripicole, et occasionnellement les formations secondaire et les lisières forestières.
+En Guyane elle est commune dans les forêts de terre ferme, fleurit en novembre et fructifie en févier.
+Les fleurs de Forsteronia acouci sont discrètes et les semences disséminées par anémochorie (graine portant de longues soies).
+Forsteronia acouci est une liane s'enroulant de façon dextrogyre.
+Forsteronia acouci peut dominer la communauté de lianes dans certaines forêts du Costa Rica ou du Mexique.
+La structure du pollen de Forsteronia acouci a été étudiée,.
+Forsteronia acouci est la seule espèce de son genre qui a montré la capacité de se reproduire par voie végétative dans une forêt d'Amazonie centrale.
+Forsteronia acouci est capable de survivre dans les zones dominées par le bambou Bambusa vulgaris à Trinidad.
 </t>
         </is>
       </c>
@@ -591,9 +607,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forsteronia acouci est présent dans les Guyanes, l'ensemble du bassin amazonien, l'Amérique centrale jusqu'au sud du Mexique[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forsteronia acouci est présent dans les Guyanes, l'ensemble du bassin amazonien, l'Amérique centrale jusqu'au sud du Mexique.
 </t>
         </is>
       </c>
@@ -622,9 +640,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cytotoxicité d'extraits de Forsteronia acouci a été testée contre des lignées cellulaires cancéreuses (sans résultats significatifs)[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cytotoxicité d'extraits de Forsteronia acouci a été testée contre des lignées cellulaires cancéreuses (sans résultats significatifs).
 </t>
         </is>
       </c>
@@ -653,9 +673,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette espèce sous le nom d’Apocynum acouci, et le protologue est le suivant[14] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette espèce sous le nom d’Apocynum acouci, et le protologue est le suivant : 
 « APOCYNUM (Acouci) foliis oblongo-ovatis, acuminatis; floribus minimis, albis. (TABULA 107.) 
 Frutex caules plures, ſarmentofos, nodofos, ſuprà arbores vicinas expanſos emittens ; folia oppoſita, ovato-oblonga, in acumen longum deſinentia, glabra, integerrima, brevi petiolata, petiolis caules &amp; ramos, amplexantibus. Flores paniculati, terminales &amp; axillares. Corymbi oppoſiti, ad baſim squamula muniti. Corolla alba, minima. Fructus deſideratur.
 Florebat Novembri.
